--- a/monolithai.xlsx
+++ b/monolithai.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.monolithai.com/cs/c/?cta_guid=380f08b2-cc00-4cba-9bb6-75a4acb57834&amp;signature=AHFS_avP887_gRtDuZ6LOpcwspWcd2vvaw&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=88dd53e6-33c0-46f2-8880-2f6ba7747af0&amp;click=f56253dd-be9e-434b-8680-2cf352129e79&amp;redirect_url=AD7p6W88P8f5LfkVJW3XRLl_yGbGeFdOv2r0gagpepGdCDYeU2dkA68EbMns4VUQ7X-LIO1ApPhRrM3sQygxVw7roQEO20ic1B7koFyOkeLopYjm9lzNmBVun1xQrStEKXcL5mnizfLQ&amp;hsutk=5f18fccf0a318b7bc10d5aa1f9e86e29&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.5f18fccf0a318b7bc10d5aa1f9e86e29.1713767777117.1713767777117.1713767777117.1&amp;__hssc=30076896.1.1713767777117&amp;__hsfp=659442714&amp;contentType=blog-post</t>
+          <t>https://www.monolithai.com/cs/c/?cta_guid=380f08b2-cc00-4cba-9bb6-75a4acb57834&amp;signature=AHFS_auOq6nqKq5uAyBoRGQ5MiB9nuTCVg&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=88dd53e6-33c0-46f2-8880-2f6ba7747af0&amp;click=1aaa8aa9-9808-43b2-a2e8-1267a63f26e4&amp;redirect_url=AD7p6W9KBaUkPbSmqvnEpsYZ-ZqDP6iu17ekJVcZamHKfXlEm9hrZAIUxgqLixWdyq9jlVNm6QlWLk98tnxJVOaeBHukewwPD6GNoLQ8CoWOzYpRxPYNlErcueH1n2Q3uf20ZqyLxZX_&amp;hsutk=7d46942454a7f8037ee643972f21fe7f&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.7d46942454a7f8037ee643972f21fe7f.1713779776258.1713779776258.1713779776258.1&amp;__hssc=30076896.1.1713779776259&amp;__hsfp=659442714&amp;contentType=blog-post</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1185,7 +1185,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.monolithai.com/cs/c/?cta_guid=380f08b2-cc00-4cba-9bb6-75a4acb57834&amp;signature=AHFS_avP887_gRtDuZ6LOpcwspWcd2vvaw&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=88dd53e6-33c0-46f2-8880-2f6ba7747af0&amp;click=f56253dd-be9e-434b-8680-2cf352129e79&amp;redirect_url=AD7p6W88P8f5LfkVJW3XRLl_yGbGeFdOv2r0gagpepGdCDYeU2dkA68EbMns4VUQ7X-LIO1ApPhRrM3sQygxVw7roQEO20ic1B7koFyOkeLopYjm9lzNmBVun1xQrStEKXcL5mnizfLQ&amp;hsutk=5f18fccf0a318b7bc10d5aa1f9e86e29&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.5f18fccf0a318b7bc10d5aa1f9e86e29.1713767777117.1713767777117.1713767777117.1&amp;__hssc=30076896.1.1713767777117&amp;__hsfp=659442714&amp;contentType=blog-post</t>
+          <t>https://www.monolithai.com/cs/c/?cta_guid=380f08b2-cc00-4cba-9bb6-75a4acb57834&amp;signature=AHFS_auOq6nqKq5uAyBoRGQ5MiB9nuTCVg&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=88dd53e6-33c0-46f2-8880-2f6ba7747af0&amp;click=1aaa8aa9-9808-43b2-a2e8-1267a63f26e4&amp;redirect_url=AD7p6W9KBaUkPbSmqvnEpsYZ-ZqDP6iu17ekJVcZamHKfXlEm9hrZAIUxgqLixWdyq9jlVNm6QlWLk98tnxJVOaeBHukewwPD6GNoLQ8CoWOzYpRxPYNlErcueH1n2Q3uf20ZqyLxZX_&amp;hsutk=7d46942454a7f8037ee643972f21fe7f&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.7d46942454a7f8037ee643972f21fe7f.1713779776258.1713779776258.1713779776258.1&amp;__hssc=30076896.1.1713779776259&amp;__hsfp=659442714&amp;contentType=blog-post</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.monolithai.com/cs/c/?cta_guid=3d35fc89-30fa-4199-a6a0-df347e70821f&amp;signature=AHFS_atAPuP25EXj3Qph-wXG8Tg_Ej3kIQ&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=649d7996-b207-47b1-a801-e7e4baec6294&amp;click=cb4f524c-9e16-41c5-945a-0bc99fa5bd7b&amp;redirect_url=AD7p6W8lxbXnXf8xLOERkYB8w8RMEvMcEtLy1YFGxLn-r-LnyJ4mchAxF6nN45AmhEJcaA-GrytpsnUn91ns5-sNbjEoeVuxMg6PHOt_N1Pp-hrKWFnmpeyNJYtAdaTJspKThfr6PD0n&amp;hsutk=5f18fccf0a318b7bc10d5aa1f9e86e29&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.5f18fccf0a318b7bc10d5aa1f9e86e29.1713767777117.1713767777117.1713767777117.1&amp;__hssc=30076896.1.1713767777117&amp;__hsfp=659442714&amp;contentType=blog-post</t>
+          <t>https://www.monolithai.com/cs/c/?cta_guid=3d35fc89-30fa-4199-a6a0-df347e70821f&amp;signature=AHFS_asoPkGtH7bYGqnaAbyHC27aT9qo1g&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=649d7996-b207-47b1-a801-e7e4baec6294&amp;click=d2867ee2-5277-4338-9167-132799defd8b&amp;redirect_url=AD7p6W8RVNJ-Q09hm5ODKKL5jkzEoL85FyVgvx-6gnJS4QH78-MkEhSETM8AM_Pj2c5P5vAXeuyHNRz-7wxy22LgzRKDBnLQlZSwfJGDfIo3CJ_7RfA9sDExg7RtT4UUVJ4bCY4AbgyP&amp;hsutk=7d46942454a7f8037ee643972f21fe7f&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.7d46942454a7f8037ee643972f21fe7f.1713779776258.1713779776258.1713779776258.1&amp;__hssc=30076896.1.1713779776259&amp;__hsfp=659442714&amp;contentType=blog-post</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.monolithai.com/cs/c/?cta_guid=3d35fc89-30fa-4199-a6a0-df347e70821f&amp;signature=AHFS_atAPuP25EXj3Qph-wXG8Tg_Ej3kIQ&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=649d7996-b207-47b1-a801-e7e4baec6294&amp;click=cb4f524c-9e16-41c5-945a-0bc99fa5bd7b&amp;redirect_url=AD7p6W8lxbXnXf8xLOERkYB8w8RMEvMcEtLy1YFGxLn-r-LnyJ4mchAxF6nN45AmhEJcaA-GrytpsnUn91ns5-sNbjEoeVuxMg6PHOt_N1Pp-hrKWFnmpeyNJYtAdaTJspKThfr6PD0n&amp;hsutk=5f18fccf0a318b7bc10d5aa1f9e86e29&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.5f18fccf0a318b7bc10d5aa1f9e86e29.1713767777117.1713767777117.1713767777117.1&amp;__hssc=30076896.1.1713767777117&amp;__hsfp=659442714&amp;contentType=blog-post</t>
+          <t>https://www.monolithai.com/cs/c/?cta_guid=3d35fc89-30fa-4199-a6a0-df347e70821f&amp;signature=AHFS_asoPkGtH7bYGqnaAbyHC27aT9qo1g&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=649d7996-b207-47b1-a801-e7e4baec6294&amp;click=d2867ee2-5277-4338-9167-132799defd8b&amp;redirect_url=AD7p6W8RVNJ-Q09hm5ODKKL5jkzEoL85FyVgvx-6gnJS4QH78-MkEhSETM8AM_Pj2c5P5vAXeuyHNRz-7wxy22LgzRKDBnLQlZSwfJGDfIo3CJ_7RfA9sDExg7RtT4UUVJ4bCY4AbgyP&amp;hsutk=7d46942454a7f8037ee643972f21fe7f&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.7d46942454a7f8037ee643972f21fe7f.1713779776258.1713779776258.1713779776258.1&amp;__hssc=30076896.1.1713779776259&amp;__hsfp=659442714&amp;contentType=blog-post</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.monolithai.com/cs/c/?cta_guid=3d35fc89-30fa-4199-a6a0-df347e70821f&amp;signature=AHFS_atAPuP25EXj3Qph-wXG8Tg_Ej3kIQ&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=649d7996-b207-47b1-a801-e7e4baec6294&amp;click=cb4f524c-9e16-41c5-945a-0bc99fa5bd7b&amp;redirect_url=AD7p6W8lxbXnXf8xLOERkYB8w8RMEvMcEtLy1YFGxLn-r-LnyJ4mchAxF6nN45AmhEJcaA-GrytpsnUn91ns5-sNbjEoeVuxMg6PHOt_N1Pp-hrKWFnmpeyNJYtAdaTJspKThfr6PD0n&amp;hsutk=5f18fccf0a318b7bc10d5aa1f9e86e29&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.5f18fccf0a318b7bc10d5aa1f9e86e29.1713767777117.1713767777117.1713767777117.1&amp;__hssc=30076896.1.1713767777117&amp;__hsfp=659442714&amp;contentType=blog-post</t>
+          <t>https://www.monolithai.com/cs/c/?cta_guid=3d35fc89-30fa-4199-a6a0-df347e70821f&amp;signature=AHFS_asoPkGtH7bYGqnaAbyHC27aT9qo1g&amp;portal_id=25090789&amp;pageId=50358524627&amp;placement_guid=649d7996-b207-47b1-a801-e7e4baec6294&amp;click=d2867ee2-5277-4338-9167-132799defd8b&amp;redirect_url=AD7p6W8RVNJ-Q09hm5ODKKL5jkzEoL85FyVgvx-6gnJS4QH78-MkEhSETM8AM_Pj2c5P5vAXeuyHNRz-7wxy22LgzRKDBnLQlZSwfJGDfIo3CJ_7RfA9sDExg7RtT4UUVJ4bCY4AbgyP&amp;hsutk=7d46942454a7f8037ee643972f21fe7f&amp;canon=https%3A%2F%2Fwww.monolithai.com%2Fblog%2F4-ways-ai-is-changing-the-packaging-industry&amp;__hstc=30076896.7d46942454a7f8037ee643972f21fe7f.1713779776258.1713779776258.1713779776258.1&amp;__hssc=30076896.1.1713779776259&amp;__hsfp=659442714&amp;contentType=blog-post</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
